--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1 -1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -219,15 +219,15 @@
   </sheetPr>
   <dimension ref="A1:A1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>527670</v>
+        <v>696547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,6 +613,11 @@
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>676692</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>696547</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
   <si>
     <t xml:space="preserve"> 435971</t>
   </si>
@@ -217,410 +220,414 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>696547</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>93237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
+        <v>93237</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>142730</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>404648</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
+        <v>404648</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>668379</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>564760</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>669507</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
+        <v>669507</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>169108</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>77043</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>236016</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>251751</v>
+        <v>236016</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>833457</v>
+        <v>251751</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>457447</v>
+        <v>833457</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>366917</v>
+        <v>457447</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>791021</v>
+        <v>366917</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>604732</v>
+        <v>791021</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>531085</v>
+        <v>604732</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>713634</v>
+        <v>531085</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>597228</v>
+        <v>713634</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>706207</v>
+        <v>597228</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>412177</v>
+        <v>706207</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
+        <v>412177</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>450124</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
         <v>81731</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>852176</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>794258</v>
+        <v>852176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>552868</v>
+        <v>794258</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>742851</v>
+        <v>552868</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>305254</v>
+        <v>742851</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>762046</v>
+        <v>305254</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>312847</v>
+        <v>762046</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>749831</v>
+        <v>312847</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>675739</v>
+        <v>749831</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
+        <v>675739</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>504640</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
         <v>607143</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="n">
-        <v>149057</v>
+      <c r="A36" s="5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
+        <v>149057</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
         <v>631993</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
         <v>678493</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="n">
-        <v>441740</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
+        <v>441740</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
         <v>610543</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="n">
-        <v>700728</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
-        <v>758936</v>
+        <v>700728</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
+        <v>758936</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
         <v>715304</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="n">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
         <v>497413</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="n">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
         <v>624323</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
         <v>624340</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
         <v>718498</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
         <v>324403</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
-        <v>109805</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
+        <v>109805</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
         <v>644546</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
         <v>298734</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
         <v>628710</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
-        <v>359964</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
+        <v>359964</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
         <v>307784</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="n">
-        <v>683033</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
+        <v>683033</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
         <v>696547</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
         <v>526634</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>812414</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
-        <v>271887</v>
+        <v>812414</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
-        <v>643194</v>
+        <v>271887</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
-        <v>517883</v>
+        <v>643194</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
-        <v>305764</v>
+        <v>517883</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
-        <v>641097</v>
+        <v>305764</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
-        <v>719487</v>
+        <v>641097</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
-        <v>81250</v>
+        <v>719487</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
-        <v>187669</v>
+        <v>81250</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
-        <v>879116</v>
+        <v>187669</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
-        <v>841599</v>
+        <v>879116</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
-        <v>133495</v>
+        <v>841599</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
-        <v>179365</v>
+        <v>133495</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>157054</v>
+        <v>179365</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
+        <v>157054</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="n">
         <v>630212</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
         <v>844214</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="n">
         <v>493723</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
         <v>178576</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="n">
-        <v>272687</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
-        <v>365213</v>
+        <v>272687</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
+        <v>365213</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="n">
         <v>676692</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
         <v>696547</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
